--- a/API_AUTO/test_data/TestData_Parameterist.xlsx
+++ b/API_AUTO/test_data/TestData_Parameterist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="27135"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,6 +44,14 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="14"/>
@@ -70,16 +78,52 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -96,65 +140,21 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -168,26 +168,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,7 +191,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -227,181 +227,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,26 +430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,8 +487,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,276 +504,288 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="21" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="7" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="31" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="19">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1150,352 +1153,376 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="6"/>
   <cols>
-    <col width="14" customWidth="1" style="1" min="1" max="1"/>
-    <col width="9.25" customWidth="1" style="1" min="2" max="2"/>
-    <col width="17.3796296296296" customWidth="1" style="1" min="3" max="3"/>
-    <col width="18.75" customWidth="1" style="1" min="4" max="4"/>
-    <col width="16" customWidth="1" style="1" min="5" max="5"/>
-    <col width="43.25" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.12962962962963" customWidth="1" style="1" min="7" max="7"/>
-    <col width="109.37962962963" customWidth="1" style="1" min="8" max="8"/>
-    <col width="11.8796296296296" customWidth="1" style="1" min="9" max="9"/>
-    <col width="14.0833333333333" customWidth="1" style="1" min="10" max="10"/>
+    <col customWidth="1" max="1" min="1" style="1" width="14"/>
+    <col customWidth="1" max="2" min="2" style="1" width="9.25"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.3833333333333"/>
+    <col customWidth="1" max="4" min="4" style="1" width="18.75"/>
+    <col customWidth="1" max="5" min="5" style="1" width="16"/>
+    <col customWidth="1" max="6" min="6" style="1" width="43.25"/>
+    <col customWidth="1" max="7" min="7" style="1" width="9.133333333333329"/>
+    <col customWidth="1" max="8" min="8" style="1" width="109.383333333333"/>
+    <col customWidth="1" max="9" min="9" style="1" width="11.8833333333333"/>
+    <col customWidth="1" max="10" min="10" style="1" width="14.0833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.8" customFormat="1" customHeight="1" s="8">
-      <c r="A1" s="10" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="34.8" r="1" s="9">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>caseID</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>module</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>precondition</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>functionPoint</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="J1" s="10" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="inlineStr">
+      <c r="A2" s="16" t="inlineStr">
         <is>
           <t>UserLogin_0001</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C2" s="15" t="inlineStr">
+      <c r="C2" s="16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D2" s="16" t="inlineStr">
+      <c r="D2" s="17" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E2" s="15" t="inlineStr">
+      <c r="E2" s="16" t="inlineStr">
         <is>
           <t>使用正常数据</t>
         </is>
       </c>
-      <c r="F2" s="15" t="inlineStr">
+      <c r="F2" s="16" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G2" s="15" t="inlineStr">
+      <c r="G2" s="16" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H2" s="11" t="inlineStr">
+      <c r="H2" s="12" t="inlineStr">
         <is>
           <t>{"username":"${username}","password":"${password}","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc56dcac"}</t>
         </is>
       </c>
-      <c r="I2" s="16" t="inlineStr">
+      <c r="I2" s="17" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="J2" s="15" t="n"/>
+      <c r="J2" s="16" t="inlineStr">
+        <is>
+          <t>{"code":40301,"message":"用户名或密码错误","data":null}</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="inlineStr">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>UserLogin_0002</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C3" s="15" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D3" s="16" t="inlineStr">
+      <c r="D3" s="17" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E3" s="15" t="inlineStr">
+      <c r="E3" s="16" t="inlineStr">
         <is>
           <t>不输入账号</t>
         </is>
       </c>
-      <c r="F3" s="15" t="inlineStr">
+      <c r="F3" s="16" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G3" s="15" t="inlineStr">
+      <c r="G3" s="16" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H3" s="15" t="inlineStr">
+      <c r="H3" s="16" t="inlineStr">
         <is>
           <t>{"username":"","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc57dcac"}</t>
         </is>
       </c>
-      <c r="I3" s="15" t="n">
+      <c r="I3" s="16" t="n">
         <v>40001</v>
       </c>
-      <c r="J3" s="15" t="n"/>
+      <c r="J3" s="16" t="inlineStr">
+        <is>
+          <t>{"code":40001,"message":null,"data":[{"field":"username","message":"must not be empty"}]}</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="inlineStr">
+      <c r="A4" s="16" t="inlineStr">
         <is>
           <t>UserLogin_0003</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B4" s="16" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C4" s="15" t="inlineStr">
+      <c r="C4" s="16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D4" s="16" t="inlineStr">
+      <c r="D4" s="17" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E4" s="15" t="inlineStr">
+      <c r="E4" s="16" t="inlineStr">
         <is>
           <t>不输入密码</t>
         </is>
       </c>
-      <c r="F4" s="15" t="inlineStr">
+      <c r="F4" s="16" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G4" s="15" t="inlineStr">
+      <c r="G4" s="16" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H4" s="15" t="inlineStr">
+      <c r="H4" s="16" t="inlineStr">
         <is>
           <t>{"username":"admin","password":"","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc58dcac"}</t>
         </is>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="I4" s="16" t="n">
         <v>40001</v>
       </c>
-      <c r="J4" s="15" t="n"/>
+      <c r="J4" s="16" t="inlineStr">
+        <is>
+          <t>{"code":40001,"message":null,"data":[{"field":"password","message":"must not be empty"}]}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="inlineStr">
+      <c r="A5" s="16" t="inlineStr">
         <is>
           <t>UserLogin_0004</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C5" s="15" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D5" s="16" t="inlineStr">
+      <c r="D5" s="17" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E5" s="15" t="inlineStr">
+      <c r="E5" s="16" t="inlineStr">
         <is>
           <t>不输入验证码</t>
         </is>
       </c>
-      <c r="F5" s="15" t="inlineStr">
+      <c r="F5" s="16" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G5" s="15" t="inlineStr">
+      <c r="G5" s="16" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H5" s="15" t="inlineStr">
+      <c r="H5" s="16" t="inlineStr">
         <is>
           <t>{"username":"admin","password":"000000","captcha":"","randomStr":"9b252966-a8db-4467-9817-6c22fc59dcac"}</t>
         </is>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="16" t="n">
         <v>40001</v>
       </c>
-      <c r="J5" s="15" t="n"/>
+      <c r="J5" s="16" t="inlineStr">
+        <is>
+          <t>{"code":40001,"message":null,"data":[{"field":"captcha","message":"must not be empty"}]}</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="inlineStr">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>UserLogin_0005</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C6" s="15" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D6" s="16" t="inlineStr">
+      <c r="D6" s="17" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E6" s="16" t="inlineStr">
+      <c r="E6" s="17" t="inlineStr">
         <is>
           <t>输入不存在账号</t>
         </is>
       </c>
-      <c r="F6" s="15" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G6" s="15" t="inlineStr">
+      <c r="G6" s="16" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H6" s="15" t="inlineStr">
+      <c r="H6" s="16" t="inlineStr">
         <is>
           <t>{"username":"admin123","password":"000000","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc60dcac"}</t>
         </is>
       </c>
-      <c r="I6" s="15" t="n">
+      <c r="I6" s="16" t="n">
         <v>40301</v>
       </c>
-      <c r="J6" s="15" t="n"/>
+      <c r="J6" s="16" t="inlineStr">
+        <is>
+          <t>{"code":40301,"message":"用户名或密码错误","data":null}</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="A7" s="16" t="inlineStr">
         <is>
           <t>UserLogin_0006</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B7" s="16" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D7" s="16" t="inlineStr">
+      <c r="D7" s="17" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
+      <c r="E7" s="16" t="inlineStr">
         <is>
           <t>输入错误密码</t>
         </is>
       </c>
-      <c r="F7" s="15" t="inlineStr">
+      <c r="F7" s="16" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G7" s="15" t="inlineStr">
+      <c r="G7" s="16" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H7" s="15" t="inlineStr">
+      <c r="H7" s="16" t="inlineStr">
         <is>
           <t>{"username":"admin","password":"123456","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc61dcac"}</t>
         </is>
       </c>
-      <c r="I7" s="15" t="n">
+      <c r="I7" s="16" t="n">
         <v>40301</v>
       </c>
-      <c r="J7" s="15" t="n"/>
+      <c r="J7" s="16" t="inlineStr">
+        <is>
+          <t>{"code":40301,"message":"用户名或密码错误","data":null}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1508,736 +1535,792 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col width="15.6296296296296" customWidth="1" style="1" min="1" max="1"/>
-    <col width="10.6296296296296" customWidth="1" style="1" min="2" max="2"/>
-    <col width="19" customWidth="1" style="1" min="3" max="3"/>
-    <col width="18.8796296296296" customWidth="1" style="1" min="4" max="4"/>
-    <col width="19.3796296296296" customWidth="1" style="1" min="5" max="5"/>
-    <col width="26.8796296296296" customWidth="1" style="1" min="6" max="6"/>
-    <col width="11.5" customWidth="1" style="1" min="7" max="7"/>
-    <col width="56.6296296296296" customWidth="1" style="1" min="8" max="8"/>
-    <col width="14.1296296296296" customWidth="1" style="9" min="9" max="9"/>
-    <col width="78.5" customWidth="1" style="1" min="10" max="10"/>
+    <col customWidth="1" max="1" min="1" style="1" width="15.6333333333333"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.6333333333333"/>
+    <col customWidth="1" max="3" min="3" style="1" width="19"/>
+    <col customWidth="1" max="4" min="4" style="1" width="18.8833333333333"/>
+    <col customWidth="1" max="5" min="5" style="1" width="19.3833333333333"/>
+    <col customWidth="1" max="6" min="6" style="1" width="26.8833333333333"/>
+    <col customWidth="1" max="7" min="7" style="1" width="11.5"/>
+    <col customWidth="1" max="8" min="8" style="1" width="56.6333333333333"/>
+    <col customWidth="1" max="9" min="9" style="10" width="14.1333333333333"/>
+    <col customWidth="1" max="10" min="10" style="1" width="78.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.8" customFormat="1" customHeight="1" s="8">
-      <c r="A1" s="10" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="34.8" r="1" s="9">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>caseID</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>module</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>precondition</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>functionPoint</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="J1" s="10" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="36" customHeight="1" s="1">
-      <c r="A2" s="11" t="inlineStr">
+    <row customHeight="1" ht="36" r="2" s="1">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>UserLogin_0001</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>UserLogin</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="13" t="inlineStr">
         <is>
           <t>用户登录</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>使用正常数据</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/authenticate</t>
         </is>
       </c>
-      <c r="G2" s="11" t="inlineStr">
+      <c r="G2" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H2" s="11" t="inlineStr">
+      <c r="H2" s="12" t="inlineStr">
         <is>
           <t>{"username":"${admin_username}","password":"${admin_password}","captcha":"76798","randomStr":"9b252966-a8db-4467-9817-6c22fc56dcac"}</t>
         </is>
       </c>
-      <c r="I2" s="14" t="inlineStr">
+      <c r="I2" s="15" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="J2" s="11" t="n"/>
-    </row>
-    <row r="3" ht="36" customHeight="1" s="1">
-      <c r="A3" s="13" t="inlineStr">
+      <c r="J2" s="12" t="inlineStr">
+        <is>
+          <t>{"idToken":"eyJhbGciOiJIUzUxMiIsInppcCI6IkRFRiJ9.eNpMyt0KQEAQQOF3mWtbljGst5k1o0Zo81NK3p3kwuX5OiekxebOEo_QAstkM2Sw7vFXeiRoPXnCUFS5z8B4ewHpg2Gz58eeQ5SmdqRUOUQlF7TsnHDeeJECWRGuGwAA__8.rE4yfuzd_Im-6e2WiKX2l0HfdSgkP-G1PPdTiKGuYaVEvA1wShBcmWC2uhrXVENQi46GT3ZeAXR6EHPSmCeZAg","expiresIn":1799999}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="3" s="1">
+      <c r="A3" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0001</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C3" s="13" t="inlineStr">
+      <c r="C3" s="14" t="inlineStr">
         <is>
           <t>NoAuthentication</t>
         </is>
       </c>
-      <c r="D3" s="13" t="inlineStr">
+      <c r="D3" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E3" s="13" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>使用正常数据，但不带Authentication</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F3" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G3" s="11" t="inlineStr">
+      <c r="G3" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H3" s="11" t="inlineStr">
+      <c r="H3" s="12" t="inlineStr">
         <is>
           <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
         </is>
       </c>
-      <c r="I3" s="14" t="inlineStr">
+      <c r="I3" s="15" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="J3" s="13" t="n"/>
-    </row>
-    <row r="4" ht="36" customHeight="1" s="1">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="J3" s="14" t="inlineStr">
+        <is>
+          <t>{"uuid":"aec0ba82830f3056a7d91cb54d8c2a51","account":"test210302213658","realName":"test210302213658","email":"0302213658@test.com","mobile":"210302213658","state":"normal","companyId":15,"companyName":null}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="4" s="1">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0002</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E4" s="13" t="inlineStr">
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>使用正常数据</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="G4" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H4" s="11" t="inlineStr">
+      <c r="H4" s="12" t="inlineStr">
         <is>
           <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
         </is>
       </c>
-      <c r="I4" s="14" t="inlineStr">
+      <c r="I4" s="15" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="J4" s="13" t="n"/>
-    </row>
-    <row r="5" ht="36" customHeight="1" s="1">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="J4" s="14" t="inlineStr">
+        <is>
+          <t>{"code":10000,"message":"用户名被占用","data":null}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="5" s="1">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0003</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="14" t="inlineStr">
         <is>
           <t>不输入realName</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="F5" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G5" s="11" t="inlineStr">
+      <c r="G5" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="H5" s="12" t="inlineStr">
         <is>
           <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
         </is>
       </c>
-      <c r="I5" s="14" t="inlineStr">
+      <c r="I5" s="15" t="inlineStr">
         <is>
           <t>真实姓名必填，错误</t>
         </is>
       </c>
-      <c r="J5" s="13" t="n"/>
-    </row>
-    <row r="6" ht="36" customHeight="1" s="1">
-      <c r="A6" s="13" t="inlineStr">
+      <c r="J5" s="14" t="inlineStr">
+        <is>
+          <t>{"code":10000,"message":"用户名被占用","data":null}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="6" s="1">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0004</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C6" s="13" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D6" s="13" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E6" s="13" t="inlineStr">
+      <c r="E6" s="14" t="inlineStr">
         <is>
           <t>不输入email</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G6" s="11" t="inlineStr">
+      <c r="G6" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H6" s="11" t="inlineStr">
+      <c r="H6" s="12" t="inlineStr">
         <is>
           <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
         </is>
       </c>
-      <c r="I6" s="14" t="inlineStr">
+      <c r="I6" s="15" t="inlineStr">
         <is>
           <t>邮箱必填，错误</t>
         </is>
       </c>
-      <c r="J6" s="13" t="n"/>
-    </row>
-    <row r="7" ht="36" customHeight="1" s="1">
-      <c r="A7" s="13" t="inlineStr">
+      <c r="J6" s="14" t="inlineStr">
+        <is>
+          <t>{"code":10000,"message":"用户名被占用","data":null}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="7" s="1">
+      <c r="A7" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0005</t>
         </is>
       </c>
-      <c r="B7" s="13" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C7" s="13" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
+      <c r="D7" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E7" s="13" t="inlineStr">
+      <c r="E7" s="14" t="inlineStr">
         <is>
           <t>不输入mobile</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="F7" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G7" s="11" t="inlineStr">
+      <c r="G7" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H7" s="11" t="inlineStr">
+      <c r="H7" s="12" t="inlineStr">
         <is>
           <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
         </is>
       </c>
-      <c r="I7" s="14" t="n">
+      <c r="I7" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J7" s="13" t="n"/>
-    </row>
-    <row r="8" ht="36" customHeight="1" s="1">
-      <c r="A8" s="13" t="inlineStr">
+      <c r="J7" s="14" t="inlineStr">
+        <is>
+          <t>{"code":10000,"message":"用户名被占用","data":null}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="8" s="1">
+      <c r="A8" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0006</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
+      <c r="D8" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="E8" s="14" t="inlineStr">
         <is>
           <t>不输入password</t>
         </is>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F8" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G8" s="11" t="inlineStr">
+      <c r="G8" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H8" s="11" t="inlineStr">
+      <c r="H8" s="12" t="inlineStr">
         <is>
           <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
         </is>
       </c>
-      <c r="I8" s="14" t="inlineStr">
+      <c r="I8" s="15" t="inlineStr">
         <is>
           <t>待定</t>
         </is>
       </c>
-      <c r="J8" s="13" t="n"/>
-    </row>
-    <row r="9" ht="36" customHeight="1" s="1">
-      <c r="A9" s="13" t="inlineStr">
+      <c r="J8" s="14" t="inlineStr">
+        <is>
+          <t>{"code":10000,"message":"用户名被占用","data":null}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="9" s="1">
+      <c r="A9" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0007</t>
         </is>
       </c>
-      <c r="B9" s="13" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C9" s="13" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
+      <c r="D9" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E9" s="13" t="inlineStr">
+      <c r="E9" s="14" t="inlineStr">
         <is>
           <t>不输入companyId</t>
         </is>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="F9" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G9" s="11" t="inlineStr">
+      <c r="G9" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H9" s="11" t="inlineStr">
+      <c r="H9" s="12" t="inlineStr">
         <is>
           <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
         </is>
       </c>
-      <c r="I9" s="14" t="n">
+      <c r="I9" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J9" s="13" t="n"/>
-    </row>
-    <row r="10" ht="36" customHeight="1" s="1">
-      <c r="A10" s="13" t="inlineStr">
+      <c r="J9" s="14" t="inlineStr">
+        <is>
+          <t>{"code":10000,"message":"用户名被占用","data":null}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="10" s="1">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0008</t>
         </is>
       </c>
-      <c r="B10" s="13" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C10" s="13" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
+      <c r="D10" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E10" s="13" t="inlineStr">
+      <c r="E10" s="14" t="inlineStr">
         <is>
           <t>不输入account</t>
         </is>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F10" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G10" s="11" t="inlineStr">
+      <c r="G10" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H10" s="11" t="inlineStr">
+      <c r="H10" s="12" t="inlineStr">
         <is>
           <t>{"realName": "${real_name}","email": "${email}","mobile": "${mobile}","password": "${password}","companyId": ${companyId},"account": "${account}"}</t>
         </is>
       </c>
-      <c r="I10" s="14" t="n">
+      <c r="I10" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J10" s="13" t="n"/>
-    </row>
-    <row r="11" ht="36" customHeight="1" s="1">
-      <c r="A11" s="13" t="inlineStr">
+      <c r="J10" s="14" t="inlineStr">
+        <is>
+          <t>{"code":10000,"message":"用户名被占用","data":null}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="11" s="1">
+      <c r="A11" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0009</t>
         </is>
       </c>
-      <c r="B11" s="13" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C11" s="13" t="inlineStr">
+      <c r="C11" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D11" s="13" t="inlineStr">
+      <c r="D11" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="E11" s="14" t="inlineStr">
         <is>
           <t>输入重复的realName</t>
         </is>
       </c>
-      <c r="F11" s="11" t="inlineStr">
+      <c r="F11" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G11" s="11" t="inlineStr">
+      <c r="G11" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H11" s="11" t="inlineStr">
+      <c r="H11" s="12" t="inlineStr">
         <is>
           <t>{"realName": "test03","email": "7361705508@test.com","mobile": "13143742907","password": "000000","companyId": 15,"account": "test008"}</t>
         </is>
       </c>
-      <c r="I11" s="14" t="inlineStr">
+      <c r="I11" s="15" t="inlineStr">
         <is>
           <t>待定</t>
         </is>
       </c>
-      <c r="J11" s="13" t="n"/>
-    </row>
-    <row r="12" ht="36" customHeight="1" s="1">
-      <c r="A12" s="13" t="inlineStr">
+      <c r="J11" s="14" t="inlineStr">
+        <is>
+          <t>{"code":10000,"message":"用户名被占用","data":null}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="12" s="1">
+      <c r="A12" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0010</t>
         </is>
       </c>
-      <c r="B12" s="13" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C12" s="13" t="inlineStr">
+      <c r="C12" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
+      <c r="D12" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E12" s="13" t="inlineStr">
+      <c r="E12" s="14" t="inlineStr">
         <is>
           <t>输入重复的email</t>
         </is>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F12" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G12" s="11" t="inlineStr">
+      <c r="G12" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H12" s="11" t="inlineStr">
+      <c r="H12" s="12" t="inlineStr">
         <is>
           <t>{"realName": "test202002201462","email": "test1@qq.com","mobile": "13143742908","password": "000000","companyId": 15,"account": "test009"}</t>
         </is>
       </c>
-      <c r="I12" s="14" t="n">
+      <c r="I12" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J12" s="13" t="n"/>
-    </row>
-    <row r="13" ht="36" customHeight="1" s="1">
-      <c r="A13" s="13" t="inlineStr">
+      <c r="J12" s="14" t="inlineStr">
+        <is>
+          <t>{"code":10000,"message":"邮箱被占用","data":null}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="13" s="1">
+      <c r="A13" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0011</t>
         </is>
       </c>
-      <c r="B13" s="13" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C13" s="13" t="inlineStr">
+      <c r="C13" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
+      <c r="D13" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E13" s="13" t="inlineStr">
+      <c r="E13" s="14" t="inlineStr">
         <is>
           <t>输入重复的mobile</t>
         </is>
       </c>
-      <c r="F13" s="11" t="inlineStr">
+      <c r="F13" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G13" s="11" t="inlineStr">
+      <c r="G13" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H13" s="11" t="inlineStr">
+      <c r="H13" s="12" t="inlineStr">
         <is>
           <t>{"realName": "test202002201463","email": "7361705509@test.com","mobile": "13143742986","password": "000000","companyId": 15,"account": "test010"}</t>
         </is>
       </c>
-      <c r="I13" s="14" t="n">
+      <c r="I13" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J13" s="13" t="n"/>
-    </row>
-    <row r="14" ht="36" customHeight="1" s="1">
-      <c r="A14" s="13" t="inlineStr">
+      <c r="J13" s="14" t="inlineStr">
+        <is>
+          <t>{"code":10000,"message":"手机号被占用","data":null}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="14" s="1">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0012</t>
         </is>
       </c>
-      <c r="B14" s="13" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C14" s="13" t="inlineStr">
+      <c r="C14" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
+      <c r="D14" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E14" s="13" t="inlineStr">
+      <c r="E14" s="14" t="inlineStr">
         <is>
           <t>输入不存在companyId</t>
         </is>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F14" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G14" s="11" t="inlineStr">
+      <c r="G14" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H14" s="11" t="inlineStr">
+      <c r="H14" s="12" t="inlineStr">
         <is>
           <t>{"realName": "test202002201464","email": "7361705510@test.com","mobile": "13143742909","password": "000000","companyId": 1234,"account": "test011"}</t>
         </is>
       </c>
-      <c r="I14" s="14" t="n">
+      <c r="I14" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J14" s="13" t="n"/>
-    </row>
-    <row r="15" ht="36" customHeight="1" s="1">
-      <c r="A15" s="13" t="inlineStr">
+      <c r="J14" s="14" t="inlineStr">
+        <is>
+          <t>{"code":10000,"message":"\n### Error updating database.  Cause: java.sql.SQLIntegrityConstraintViolationException: Cannot add or update a child row: a foreign key constraint fails (`jt_lhj`.`jdt_user`, CONSTRAINT `jdt_user_ibfk_1` FOREIGN KEY (`companyId`) REFERENCES `jdt_company` (`id`))\n### The error may exist in cn/julytech/upms/mapper/UserMapper.java (best guess)\n### The error may involve cn.julytech.upms.mapper.UserMapper.insert-Inline\n### The error occurred while setting parameters\n### SQL: INSERT INTO jdt_user  ( uuid, lastModifiedDate, lastModifiedBy, mobile, passwordHash, realName, companyId, createdDate, createdBy, state, email, account )  VALUES  ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ?, ?, ? )\n### Cause: java.sql.SQLIntegrityConstraintViolationException: Cannot add or update a child row: a foreign key constraint fails (`jt_lhj`.`jdt_user`, CONSTRAINT `jdt_user_ibfk_1` FOREIGN KEY (`companyId`) REFERENCES `jdt_company` (`id`))\n; Cannot add or update a child row: a foreign key constraint fails (`jt_lhj`.`jdt_user`, CONSTRAINT `jdt_user_ibfk_1` FOREIGN KEY (`companyId`) REFERENCES `jdt_company` (`id`)); nested exception is java.sql.SQLIntegrityConstraintViolationException: Cannot add or update a child row: a foreign key constraint fails (`jt_lhj`.`jdt_user`, CONSTRAINT `jdt_user_ibfk_1` FOREIGN KEY (`companyId`) REFERENCES `jdt_company` (`id`))","data":null}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="15" s="1">
+      <c r="A15" s="14" t="inlineStr">
         <is>
           <t>UserRegist_0013</t>
         </is>
       </c>
-      <c r="B15" s="13" t="inlineStr">
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>UserRegist</t>
         </is>
       </c>
-      <c r="C15" s="13" t="inlineStr">
+      <c r="C15" s="14" t="inlineStr">
         <is>
           <t>WithAuthentication</t>
         </is>
       </c>
-      <c r="D15" s="13" t="inlineStr">
+      <c r="D15" s="14" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="E15" s="13" t="inlineStr">
+      <c r="E15" s="14" t="inlineStr">
         <is>
           <t>输入重复的account</t>
         </is>
       </c>
-      <c r="F15" s="11" t="inlineStr">
+      <c r="F15" s="12" t="inlineStr">
         <is>
           <t>http://polybzh.julytech.cn/back/jdt/users</t>
         </is>
       </c>
-      <c r="G15" s="11" t="inlineStr">
+      <c r="G15" s="12" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="H15" s="11" t="inlineStr">
+      <c r="H15" s="12" t="inlineStr">
         <is>
           <t>{"realName": "test202002201565","email": "73617055011@test.com","mobile": "13143742910","password": "000000","companyId": 15,"account": "test03"}</t>
         </is>
       </c>
-      <c r="I15" s="14" t="n">
+      <c r="I15" s="15" t="n">
         <v>10000</v>
       </c>
-      <c r="J15" s="13" t="n"/>
+      <c r="J15" s="14" t="inlineStr">
+        <is>
+          <t>{"code":10000,"message":"用户名被占用","data":null}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -2251,356 +2334,356 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="7"/>
   <cols>
-    <col width="8.62962962962963" customWidth="1" style="1" min="1" max="2"/>
-    <col width="8.12962962962963" customWidth="1" style="1" min="3" max="3"/>
-    <col width="13.75" customWidth="1" style="1" min="4" max="4"/>
-    <col width="23.25" customWidth="1" style="1" min="5" max="5"/>
-    <col width="30.6296296296296" customWidth="1" style="1" min="6" max="7"/>
-    <col width="13.3796296296296" customWidth="1" style="1" min="8" max="9"/>
+    <col customWidth="1" max="2" min="1" style="1" width="8.633333333333329"/>
+    <col customWidth="1" max="3" min="3" style="1" width="8.133333333333329"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13.75"/>
+    <col customWidth="1" max="5" min="5" style="1" width="23.25"/>
+    <col customWidth="1" max="7" min="6" style="1" width="30.6333333333333"/>
+    <col customWidth="1" max="9" min="8" style="1" width="13.3833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" customHeight="1" s="1">
-      <c r="A1" s="6" t="inlineStr">
+    <row customHeight="1" ht="28.8" r="1" s="1">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>系统模块</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>功能点</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>用例说明</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>前置条件</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>操作步骤</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>失败原因</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" s="1">
-      <c r="A2" s="7" t="inlineStr">
+    <row customHeight="1" ht="27" r="2" s="1">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>0A001</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>用户注册</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="8" t="inlineStr">
         <is>
           <t>使用正常数据</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t>1.用户已登录
 2.用户有权限进行新增用户</t>
         </is>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>1.使用正常数据进行新增用户</t>
         </is>
       </c>
-      <c r="G2" s="7" t="inlineStr">
+      <c r="G2" s="8" t="inlineStr">
         <is>
           <t>新增成功,账号状态为未激活</t>
         </is>
       </c>
-      <c r="H2" s="7" t="n"/>
-      <c r="I2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="27" customHeight="1" s="1">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="H2" s="8" t="n"/>
+      <c r="I2" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="3" s="1">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>0A002</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>用户注册</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>不输入用户姓名</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>1.用户已登录
 2.用户有权限进行新增用户</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>其余数据均正常，但不输入用户姓名</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>code:估计为失败...swagger没有写</t>
         </is>
       </c>
-      <c r="H3" s="7" t="n"/>
-      <c r="I3" s="7" t="n"/>
-    </row>
-    <row r="4" ht="27" customHeight="1" s="1">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="H3" s="8" t="n"/>
+      <c r="I3" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" s="1">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>0A003</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>用户注册</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>不输入邮箱</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>1.用户已登录
 2.用户有权限进行新增用户</t>
         </is>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>其余数据均正常，但不输入邮箱</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="8" t="inlineStr">
         <is>
           <t>code:估计为失败...swagger没有写</t>
         </is>
       </c>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="7" t="n"/>
-    </row>
-    <row r="5" ht="27" customHeight="1" s="1">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="H4" s="8" t="n"/>
+      <c r="I4" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="5" s="1">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>0A004</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>用户注册</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>不输入手机号</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>1.用户已登录
 2.用户有权限进行新增用户</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>其余数据均正常，但不输入手机号</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
         <is>
           <t>code:估计为失败...swagger没有写</t>
         </is>
       </c>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="7" t="n"/>
-    </row>
-    <row r="6" ht="27" customHeight="1" s="1">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="H5" s="8" t="n"/>
+      <c r="I5" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="6" s="1">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>0A005</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>用户注册</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>不输入密码</t>
         </is>
       </c>
-      <c r="E6" s="7" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>1.用户已登录
 2.用户有权限进行新增用户</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>其余数据均正常，但不输入密码</t>
         </is>
       </c>
-      <c r="G6" s="7" t="inlineStr">
+      <c r="G6" s="8" t="inlineStr">
         <is>
           <t>code:估计为失败...swagger没有写</t>
         </is>
       </c>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="7" t="n"/>
-    </row>
-    <row r="7" ht="27" customHeight="1" s="1">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="H6" s="8" t="n"/>
+      <c r="I6" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="7" s="1">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>0A006</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>用户注册</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>不输入公司id</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t>1.用户已登录
 2.用户有权限进行新增用户</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>其余数据均正常，但不输入公司id</t>
         </is>
       </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="G7" s="8" t="inlineStr">
         <is>
           <t>code:估计为失败...swagger没有写</t>
         </is>
       </c>
-      <c r="H7" s="7" t="n"/>
-      <c r="I7" s="7" t="n"/>
-    </row>
-    <row r="8" ht="27" customHeight="1" s="1">
-      <c r="A8" s="7" t="inlineStr">
+      <c r="H7" s="8" t="n"/>
+      <c r="I7" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="27" r="8" s="1">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>0A007</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>用户注册</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>不输入账号</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>1.用户已登录
 2.用户有权限进行新增用户</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>其余数据均正常，但不输入登陆账号</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>code:估计为失败...swagger没有写</t>
         </is>
       </c>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="7" t="n"/>
+      <c r="H8" s="8" t="n"/>
+      <c r="I8" s="8" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2608,13 +2691,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col width="16.4444444444444" customWidth="1" style="1" min="1" max="1"/>
-    <col width="21.5" customWidth="1" style="1" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" style="1" width="16.4416666666667"/>
+    <col customWidth="1" max="2" min="2" style="1" width="21.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2637,7 +2720,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>test210302171355</t>
+          <t>test210302213658</t>
         </is>
       </c>
     </row>
@@ -2647,9 +2730,9 @@
           <t>email</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>test210302171355@test.com</t>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>0302213658@test.com</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2744,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>210302171355</t>
+          <t>210302213658</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2780,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>test210302171355</t>
+          <t>test210302213658</t>
         </is>
       </c>
     </row>
@@ -2719,14 +2802,17 @@
           <t>admin_password</t>
         </is>
       </c>
-      <c r="B9" s="17" t="inlineStr">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>000000</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink display="210302213144@test.com" ref="B3" tooltip="mailto:210302213144@test.com" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2742,12 +2828,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col width="8.37962962962963" customWidth="1" style="1" min="1" max="1"/>
-    <col width="5.12962962962963" customWidth="1" style="1" min="2" max="2"/>
-    <col width="6.12962962962963" customWidth="1" style="1" min="3" max="4"/>
-    <col width="5.12962962962963" customWidth="1" style="1" min="5" max="5"/>
+    <col customWidth="1" max="1" min="1" style="1" width="8.383333333333329"/>
+    <col customWidth="1" max="2" min="2" style="1" width="5.13333333333333"/>
+    <col customWidth="1" max="4" min="3" style="1" width="6.13333333333333"/>
+    <col customWidth="1" max="5" min="5" style="1" width="5.13333333333333"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2847,6 +2933,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>